--- a/runs/run320/NotionalETEOutput320.xlsx
+++ b/runs/run320/NotionalETEOutput320.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HELLMASKER3_State_Update</t>
+    <t>Missile_SOMERSAULT2_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER3_58.MISSILE_HELLMASKER3_58</t>
+    <t>MISSILE_SOMERSAULT2_110.MISSILE_SOMERSAULT2_110</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER3</t>
+    <t>MISSILE_SOMERSAULT2</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1552.124968485877</v>
+        <v>-1446.987555039444</v>
       </c>
       <c r="J2">
-        <v>1984.11852515069</v>
+        <v>1956.647800750282</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1414.694989617157</v>
+        <v>-1428.233785687132</v>
       </c>
       <c r="J3">
-        <v>1991.952808812741</v>
+        <v>1891.185100243911</v>
       </c>
       <c r="K3">
-        <v>311.4745459269059</v>
+        <v>294.9870518444739</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1451.990785984731</v>
+        <v>-1435.525828787365</v>
       </c>
       <c r="J4">
-        <v>1941.684113878985</v>
+        <v>1893.933495912592</v>
       </c>
       <c r="K4">
-        <v>606.4779580594578</v>
+        <v>591.8838466895736</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1376.130749803535</v>
+        <v>-1474.233160232097</v>
       </c>
       <c r="J5">
-        <v>1835.608524539691</v>
+        <v>1909.738438872122</v>
       </c>
       <c r="K5">
-        <v>839.7783825133221</v>
+        <v>888.2540488050208</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1420.385568725846</v>
+        <v>-1370.585438866575</v>
       </c>
       <c r="J6">
-        <v>1754.834967377421</v>
+        <v>1838.625751845416</v>
       </c>
       <c r="K6">
-        <v>1080.453242080858</v>
+        <v>1115.769760322213</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1309.876652362645</v>
+        <v>-1321.83594048715</v>
       </c>
       <c r="J7">
-        <v>1720.490777235725</v>
+        <v>1783.266387106351</v>
       </c>
       <c r="K7">
-        <v>1326.423260286562</v>
+        <v>1414.376853064157</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1311.457433602514</v>
+        <v>-1360.622594829808</v>
       </c>
       <c r="J8">
-        <v>1793.470721178314</v>
+        <v>1655.586683990933</v>
       </c>
       <c r="K8">
-        <v>1634.615520688762</v>
+        <v>1540.289276936105</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-97.35791586160204</v>
+        <v>-103.4634163002872</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1224.935482977453</v>
+        <v>-1261.953914374252</v>
       </c>
       <c r="J9">
-        <v>1578.992264355681</v>
+        <v>1705.803579449104</v>
       </c>
       <c r="K9">
-        <v>1896.185882992482</v>
+        <v>1861.309758228646</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>226.2015104504801</v>
+        <v>215.2917274859147</v>
       </c>
       <c r="G10">
-        <v>-86.70911985729997</v>
+        <v>-87.3235155127241</v>
       </c>
       <c r="H10">
-        <v>843.1361517415336</v>
+        <v>816.081137788051</v>
       </c>
       <c r="I10">
-        <v>-1263.053199992595</v>
+        <v>-1220.606795999156</v>
       </c>
       <c r="J10">
-        <v>1636.699615589967</v>
+        <v>1556.256319774726</v>
       </c>
       <c r="K10">
-        <v>1968.33503219308</v>
+        <v>1986.772387629092</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>174.4223233333641</v>
+        <v>174.5109500486749</v>
       </c>
       <c r="G11">
-        <v>-67.91948771668768</v>
+        <v>-67.43362507465753</v>
       </c>
       <c r="H11">
-        <v>1092.730340776603</v>
+        <v>1109.220990768597</v>
       </c>
       <c r="I11">
-        <v>-1264.800319735779</v>
+        <v>-1215.628861920791</v>
       </c>
       <c r="J11">
-        <v>1632.775681239351</v>
+        <v>1538.308153043381</v>
       </c>
       <c r="K11">
-        <v>2104.837948125099</v>
+        <v>2216.434075593961</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>146.3344364127481</v>
+        <v>147.0462969231015</v>
       </c>
       <c r="G12">
-        <v>-52.07137311468779</v>
+        <v>-48.72608114403534</v>
       </c>
       <c r="H12">
-        <v>1123.875671221892</v>
+        <v>1121.277318207544</v>
       </c>
       <c r="I12">
-        <v>-1222.944260432083</v>
+        <v>-1200.754522461526</v>
       </c>
       <c r="J12">
-        <v>1495.699450162642</v>
+        <v>1567.576835154728</v>
       </c>
       <c r="K12">
-        <v>2386.729635734363</v>
+        <v>2409.741739182753</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>119.0851420553728</v>
+        <v>121.039019572202</v>
       </c>
       <c r="G13">
-        <v>-34.86125667579095</v>
+        <v>-32.4403852332156</v>
       </c>
       <c r="H13">
-        <v>1317.490345483863</v>
+        <v>1209.266743194235</v>
       </c>
       <c r="I13">
-        <v>-1167.672079271783</v>
+        <v>-1162.923753213626</v>
       </c>
       <c r="J13">
-        <v>1417.160218769077</v>
+        <v>1472.758881465115</v>
       </c>
       <c r="K13">
-        <v>2546.346472770069</v>
+        <v>2458.632232280655</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>107.716059282498</v>
+        <v>113.0287403073994</v>
       </c>
       <c r="G14">
-        <v>-17.98855477570949</v>
+        <v>-17.07177045119673</v>
       </c>
       <c r="H14">
-        <v>1276.507416896975</v>
+        <v>1316.854320623064</v>
       </c>
       <c r="I14">
-        <v>-1044.122551295719</v>
+        <v>-1060.289371186061</v>
       </c>
       <c r="J14">
-        <v>1390.73260247977</v>
+        <v>1348.346314588823</v>
       </c>
       <c r="K14">
-        <v>2558.623293627961</v>
+        <v>2735.721184020026</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>102.9618639352417</v>
+        <v>100.375408920614</v>
       </c>
       <c r="G15">
-        <v>-0.900892846052777</v>
+        <v>-0.957416647492546</v>
       </c>
       <c r="H15">
-        <v>1409.016500761296</v>
+        <v>1388.951484143097</v>
       </c>
       <c r="I15">
-        <v>-1062.346801326786</v>
+        <v>-1098.602716805686</v>
       </c>
       <c r="J15">
-        <v>1364.088017591512</v>
+        <v>1368.829087038823</v>
       </c>
       <c r="K15">
-        <v>2839.249898723566</v>
+        <v>2743.830086192052</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>92.05693361600585</v>
+        <v>92.07500363948472</v>
       </c>
       <c r="G16">
-        <v>15.02788129915606</v>
+        <v>16.30975454374239</v>
       </c>
       <c r="H16">
-        <v>1362.497181997632</v>
+        <v>1423.894293769625</v>
       </c>
       <c r="I16">
-        <v>-1036.807945755591</v>
+        <v>-1049.742512480998</v>
       </c>
       <c r="J16">
-        <v>1278.151375961794</v>
+        <v>1255.897865270215</v>
       </c>
       <c r="K16">
-        <v>2963.305733073069</v>
+        <v>2932.693293655934</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>88.10565369878476</v>
+        <v>83.49488082163238</v>
       </c>
       <c r="G17">
-        <v>32.03968190055697</v>
+        <v>31.85731447175438</v>
       </c>
       <c r="H17">
-        <v>1416.569831717826</v>
+        <v>1465.317170072921</v>
       </c>
       <c r="I17">
-        <v>-1001.75103861922</v>
+        <v>-947.5186983753827</v>
       </c>
       <c r="J17">
-        <v>1313.239425794816</v>
+        <v>1274.998284309141</v>
       </c>
       <c r="K17">
-        <v>2920.338859904083</v>
+        <v>2834.345188981913</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>78.33061533115797</v>
+        <v>79.19301511791841</v>
       </c>
       <c r="G18">
-        <v>51.02819902699032</v>
+        <v>46.87533578970856</v>
       </c>
       <c r="H18">
-        <v>1452.568085370617</v>
+        <v>1500.933809950714</v>
       </c>
       <c r="I18">
-        <v>-954.5685785504591</v>
+        <v>-944.1552881133127</v>
       </c>
       <c r="J18">
-        <v>1190.567529009463</v>
+        <v>1179.920520693522</v>
       </c>
       <c r="K18">
-        <v>3067.288557063461</v>
+        <v>3050.964242023641</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>79.16899448150691</v>
+        <v>74.35345370314323</v>
       </c>
       <c r="G19">
-        <v>65.47013430742342</v>
+        <v>65.87883084419265</v>
       </c>
       <c r="H19">
-        <v>1518.2522374696</v>
+        <v>1526.019921710444</v>
       </c>
       <c r="I19">
-        <v>-840.4245091498881</v>
+        <v>-898.6662271229832</v>
       </c>
       <c r="J19">
-        <v>1218.69864930343</v>
+        <v>1134.915376436459</v>
       </c>
       <c r="K19">
-        <v>3005.806243610074</v>
+        <v>2976.759503161504</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>77.16717397003538</v>
+        <v>70.42560775900603</v>
       </c>
       <c r="G20">
-        <v>84.4012696586733</v>
+        <v>78.78431297777999</v>
       </c>
       <c r="H20">
-        <v>1580.22668606845</v>
+        <v>1591.584895850317</v>
       </c>
       <c r="I20">
-        <v>-825.3182511092024</v>
+        <v>-812.7070878115578</v>
       </c>
       <c r="J20">
-        <v>1097.694188591956</v>
+        <v>1137.954172031769</v>
       </c>
       <c r="K20">
-        <v>3109.465925758218</v>
+        <v>3221.824946826017</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>73.76860371034165</v>
+        <v>72.44615791825123</v>
       </c>
       <c r="G21">
-        <v>102.7553917171147</v>
+        <v>102.5198107852924</v>
       </c>
       <c r="H21">
-        <v>1638.13391875546</v>
+        <v>1610.183087599823</v>
       </c>
       <c r="I21">
-        <v>-827.8867832097346</v>
+        <v>-824.9296995941121</v>
       </c>
       <c r="J21">
-        <v>1038.469376783068</v>
+        <v>1115.095051424856</v>
       </c>
       <c r="K21">
-        <v>3214.994546482038</v>
+        <v>3156.620330640621</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>67.21933405161613</v>
+        <v>70.32643203803457</v>
       </c>
       <c r="G22">
-        <v>109.8961550231271</v>
+        <v>120.1636673676879</v>
       </c>
       <c r="H22">
-        <v>1580.020055303665</v>
+        <v>1603.525114989525</v>
       </c>
       <c r="I22">
-        <v>-771.8152340317672</v>
+        <v>-758.5586496299061</v>
       </c>
       <c r="J22">
-        <v>1059.266512997765</v>
+        <v>1032.535780761826</v>
       </c>
       <c r="K22">
-        <v>3129.347947735381</v>
+        <v>3357.056113197565</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>63.22232266002796</v>
+        <v>64.76481393984663</v>
       </c>
       <c r="G23">
-        <v>128.444880892661</v>
+        <v>129.0542643285712</v>
       </c>
       <c r="H23">
-        <v>1687.702392402478</v>
+        <v>1662.632471772838</v>
       </c>
       <c r="I23">
-        <v>-721.1361717795685</v>
+        <v>-669.4058476664245</v>
       </c>
       <c r="J23">
-        <v>944.4236047742014</v>
+        <v>1026.017036147058</v>
       </c>
       <c r="K23">
-        <v>3149.644759174233</v>
+        <v>3349.702109756734</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>63.20291818772627</v>
+        <v>60.58119578264483</v>
       </c>
       <c r="G24">
-        <v>145.1341142991361</v>
+        <v>141.5915914920922</v>
       </c>
       <c r="H24">
-        <v>1633.701281435705</v>
+        <v>1690.319489220778</v>
       </c>
       <c r="I24">
-        <v>-633.9721292882855</v>
+        <v>-677.7362763286689</v>
       </c>
       <c r="J24">
-        <v>946.3636183359861</v>
+        <v>971.8422695460894</v>
       </c>
       <c r="K24">
-        <v>3277.559310536196</v>
+        <v>3299.939965888381</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>60.48433205699914</v>
+        <v>64.52670188976525</v>
       </c>
       <c r="G25">
-        <v>164.5606421602589</v>
+        <v>171.0946050375269</v>
       </c>
       <c r="H25">
-        <v>1756.12570268064</v>
+        <v>1694.266866299168</v>
       </c>
       <c r="I25">
-        <v>-579.4919410462278</v>
+        <v>-594.0169408932592</v>
       </c>
       <c r="J25">
-        <v>880.3397681310255</v>
+        <v>863.1500410773734</v>
       </c>
       <c r="K25">
-        <v>3293.981214715938</v>
+        <v>3038.205013110959</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>61.75210488712929</v>
+        <v>59.60973038414465</v>
       </c>
       <c r="G26">
-        <v>172.8047950989024</v>
+        <v>176.3335070991049</v>
       </c>
       <c r="H26">
-        <v>1663.439272464681</v>
+        <v>1638.622334840115</v>
       </c>
       <c r="I26">
-        <v>-546.7271574467511</v>
+        <v>-533.197103004377</v>
       </c>
       <c r="J26">
-        <v>805.9014964623148</v>
+        <v>834.5508926008634</v>
       </c>
       <c r="K26">
-        <v>3151.057215419595</v>
+        <v>3144.086342330187</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>57.18142104635294</v>
+        <v>56.40681705188331</v>
       </c>
       <c r="G27">
-        <v>199.1881152817988</v>
+        <v>194.3271447850034</v>
       </c>
       <c r="H27">
-        <v>1748.552693644087</v>
+        <v>1707.71858938703</v>
       </c>
       <c r="I27">
-        <v>-472.2511962104547</v>
+        <v>-502.3938256068497</v>
       </c>
       <c r="J27">
-        <v>767.0071847003164</v>
+        <v>773.1462379907889</v>
       </c>
       <c r="K27">
-        <v>3172.481443035339</v>
+        <v>3190.271257924192</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>57.01894797084736</v>
+        <v>56.65630875694298</v>
       </c>
       <c r="G28">
-        <v>203.5336435621031</v>
+        <v>208.7598647479346</v>
       </c>
       <c r="H28">
-        <v>1708.104170055564</v>
+        <v>1757.978977711476</v>
       </c>
       <c r="I28">
-        <v>-443.1336933201162</v>
+        <v>-455.9853533942106</v>
       </c>
       <c r="J28">
-        <v>766.5609658436705</v>
+        <v>725.5913871946702</v>
       </c>
       <c r="K28">
-        <v>3090.520080324964</v>
+        <v>2964.27884313429</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>56.33768346602746</v>
+        <v>55.01667330448448</v>
       </c>
       <c r="G29">
-        <v>233.273794898407</v>
+        <v>233.6646370863399</v>
       </c>
       <c r="H29">
-        <v>1712.478390286145</v>
+        <v>1701.659535357401</v>
       </c>
       <c r="I29">
-        <v>-377.9865597302032</v>
+        <v>-371.5997658967969</v>
       </c>
       <c r="J29">
-        <v>703.9072381175015</v>
+        <v>719.5173225023507</v>
       </c>
       <c r="K29">
-        <v>2979.024087768318</v>
+        <v>2998.533984688811</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>52.94763247968977</v>
+        <v>53.85292945368485</v>
       </c>
       <c r="G30">
-        <v>237.8657550617617</v>
+        <v>249.5189917602834</v>
       </c>
       <c r="H30">
-        <v>1721.107014524346</v>
+        <v>1749.972135156475</v>
       </c>
       <c r="I30">
-        <v>-316.4992706555247</v>
+        <v>-317.0323580378149</v>
       </c>
       <c r="J30">
-        <v>612.4338046462244</v>
+        <v>617.3553871409532</v>
       </c>
       <c r="K30">
-        <v>2832.707400974985</v>
+        <v>2781.244763041488</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>53.20839184454952</v>
+        <v>52.97848245870704</v>
       </c>
       <c r="G31">
-        <v>254.5787235416158</v>
+        <v>255.2589498576381</v>
       </c>
       <c r="H31">
-        <v>1840.799098129595</v>
+        <v>1701.16874486516</v>
       </c>
       <c r="I31">
-        <v>-255.4295184286327</v>
+        <v>-265.2465068790865</v>
       </c>
       <c r="J31">
-        <v>592.4836339123358</v>
+        <v>571.3966879078193</v>
       </c>
       <c r="K31">
-        <v>2643.049977881295</v>
+        <v>2745.108033131884</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>50.8364528317444</v>
+        <v>52.2125480508824</v>
       </c>
       <c r="G32">
-        <v>289.2612778920112</v>
+        <v>280.2980894130959</v>
       </c>
       <c r="H32">
-        <v>1708.647402353801</v>
+        <v>1850.879353694713</v>
       </c>
       <c r="I32">
-        <v>-213.7168671384687</v>
+        <v>-204.9123030667264</v>
       </c>
       <c r="J32">
-        <v>544.4547889207263</v>
+        <v>553.1477214704589</v>
       </c>
       <c r="K32">
-        <v>2618.353865083141</v>
+        <v>2450.050026595179</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>52.20196156134904</v>
+        <v>51.98156204556828</v>
       </c>
       <c r="G33">
-        <v>290.7876935079405</v>
+        <v>302.7693249510067</v>
       </c>
       <c r="H33">
-        <v>1776.975543998071</v>
+        <v>1742.809729619538</v>
       </c>
       <c r="I33">
-        <v>-149.7304497942854</v>
+        <v>-140.9645237565756</v>
       </c>
       <c r="J33">
-        <v>508.4931027835521</v>
+        <v>492.0657307601734</v>
       </c>
       <c r="K33">
-        <v>2292.235123389148</v>
+        <v>2377.622465329378</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>48.16981258773724</v>
+        <v>48.05805117860123</v>
       </c>
       <c r="G34">
-        <v>322.763505091339</v>
+        <v>324.4285358854027</v>
       </c>
       <c r="H34">
-        <v>1814.837842188418</v>
+        <v>1794.26159264887</v>
       </c>
       <c r="I34">
-        <v>-84.10809360452104</v>
+        <v>-81.37470371844179</v>
       </c>
       <c r="J34">
-        <v>447.8804556816401</v>
+        <v>460.3460058796487</v>
       </c>
       <c r="K34">
-        <v>2229.436596699825</v>
+        <v>2223.378059014689</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>47.17085226029364</v>
+        <v>50.30353509305372</v>
       </c>
       <c r="G35">
-        <v>341.2376394388368</v>
+        <v>330.566275142891</v>
       </c>
       <c r="H35">
-        <v>1899.091190090136</v>
+        <v>1892.529168911826</v>
       </c>
       <c r="I35">
-        <v>-18.49243918388562</v>
+        <v>-19.01894656639458</v>
       </c>
       <c r="J35">
-        <v>376.4439473380957</v>
+        <v>411.0684318471941</v>
       </c>
       <c r="K35">
-        <v>2090.15447637706</v>
+        <v>2015.117603149064</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>46.38524232970241</v>
+        <v>49.08532597582826</v>
       </c>
       <c r="G36">
-        <v>350.4149120919239</v>
+        <v>348.3127035198458</v>
       </c>
       <c r="H36">
-        <v>1753.423563941178</v>
+        <v>1901.589650848589</v>
       </c>
       <c r="I36">
-        <v>45.56557520857164</v>
+        <v>45.16091435306516</v>
       </c>
       <c r="J36">
-        <v>340.9811265762597</v>
+        <v>359.6233786248785</v>
       </c>
       <c r="K36">
-        <v>1804.880253681589</v>
+        <v>1770.599058546673</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>46.96422099005851</v>
+        <v>48.22722180269347</v>
       </c>
       <c r="G37">
-        <v>367.7180629681232</v>
+        <v>369.7243487721371</v>
       </c>
       <c r="H37">
-        <v>1880.76673578635</v>
+        <v>1874.687181182362</v>
       </c>
       <c r="I37">
-        <v>115.2084180128711</v>
+        <v>110.2207027015811</v>
       </c>
       <c r="J37">
-        <v>298.2611614834055</v>
+        <v>298.9202082143663</v>
       </c>
       <c r="K37">
-        <v>1603.340942858454</v>
+        <v>1580.407230592069</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>47.25434691549104</v>
+        <v>45.26097641510647</v>
       </c>
       <c r="G38">
-        <v>360.4279281969823</v>
+        <v>365.022505076051</v>
       </c>
       <c r="H38">
-        <v>1788.135882500766</v>
+        <v>1834.03333041005</v>
       </c>
       <c r="I38">
-        <v>179.8499800742214</v>
+        <v>186.2021675935994</v>
       </c>
       <c r="J38">
-        <v>237.935983159803</v>
+        <v>244.2818864131713</v>
       </c>
       <c r="K38">
-        <v>1352.078719991985</v>
+        <v>1395.810944963839</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>47.14041612744395</v>
+        <v>42.88485892893084</v>
       </c>
       <c r="G39">
-        <v>400.9526477316177</v>
+        <v>385.6127507710981</v>
       </c>
       <c r="H39">
-        <v>1898.163456213405</v>
+        <v>1894.027378474175</v>
       </c>
       <c r="I39">
-        <v>247.862816130169</v>
+        <v>268.1100026556508</v>
       </c>
       <c r="J39">
-        <v>205.1833273844206</v>
+        <v>204.5728380077682</v>
       </c>
       <c r="K39">
-        <v>1182.948750027192</v>
+        <v>1206.067534687929</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>42.90442807501919</v>
+        <v>44.99266883563259</v>
       </c>
       <c r="G40">
-        <v>421.8129048868375</v>
+        <v>397.8677072048333</v>
       </c>
       <c r="H40">
-        <v>1893.034267404758</v>
+        <v>1798.906213117242</v>
       </c>
       <c r="I40">
-        <v>343.5086106894209</v>
+        <v>335.4944014874737</v>
       </c>
       <c r="J40">
-        <v>150.20023696026</v>
+        <v>156.6241105484102</v>
       </c>
       <c r="K40">
-        <v>870.8183574424359</v>
+        <v>935.0552404150328</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>44.00833530935518</v>
+        <v>41.773647892567</v>
       </c>
       <c r="G41">
-        <v>440.6099346658931</v>
+        <v>445.6166441698957</v>
       </c>
       <c r="H41">
-        <v>1946.310865383167</v>
+        <v>1841.331671751679</v>
       </c>
       <c r="I41">
-        <v>395.8866303427082</v>
+        <v>404.4758890620933</v>
       </c>
       <c r="J41">
-        <v>104.6248060106873</v>
+        <v>100.2577615591135</v>
       </c>
       <c r="K41">
-        <v>599.8915607687879</v>
+        <v>636.2716324719186</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>44.40700770115615</v>
+        <v>40.96371178394624</v>
       </c>
       <c r="G42">
-        <v>431.5921345322045</v>
+        <v>455.2013316350739</v>
       </c>
       <c r="H42">
-        <v>1846.392691238813</v>
+        <v>1854.402041453264</v>
       </c>
       <c r="I42">
-        <v>469.778533251578</v>
+        <v>456.997041898085</v>
       </c>
       <c r="J42">
-        <v>55.43842636607209</v>
+        <v>54.58052833167994</v>
       </c>
       <c r="K42">
-        <v>335.8060474553562</v>
+        <v>336.3096291234482</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>44.23926394935329</v>
+        <v>43.98497102576508</v>
       </c>
       <c r="G43">
-        <v>469.307207138633</v>
+        <v>483.5159491500598</v>
       </c>
       <c r="H43">
-        <v>1925.084316761412</v>
+        <v>1804.972437239973</v>
       </c>
       <c r="I43">
-        <v>538.8322077691232</v>
+        <v>577.806961707956</v>
       </c>
       <c r="J43">
-        <v>5.055716869978037</v>
+        <v>5.309545124458918</v>
       </c>
       <c r="K43">
-        <v>32.14906729032416</v>
+        <v>32.5907932978638</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>42.66232835582576</v>
+        <v>40.26405803192142</v>
       </c>
       <c r="G44">
-        <v>465.2915879601713</v>
+        <v>493.6549347371204</v>
       </c>
       <c r="H44">
-        <v>1952.854763327668</v>
+        <v>1988.329909749187</v>
       </c>
       <c r="I44">
-        <v>606.5057510645534</v>
+        <v>667.8075613167449</v>
       </c>
       <c r="J44">
-        <v>-42.22785927054965</v>
+        <v>-44.31336786581402</v>
       </c>
       <c r="K44">
-        <v>-287.9539465806142</v>
+        <v>-289.6799988582212</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>43.03664958473853</v>
+        <v>42.03885652606838</v>
       </c>
       <c r="G45">
-        <v>475.5602623748709</v>
+        <v>494.3531223772343</v>
       </c>
       <c r="H45">
-        <v>1889.603851364639</v>
+        <v>1974.287355205092</v>
       </c>
       <c r="I45">
-        <v>714.6350410557085</v>
+        <v>727.1394253677138</v>
       </c>
       <c r="J45">
-        <v>-87.86298500230441</v>
+        <v>-89.92720321540801</v>
       </c>
       <c r="K45">
-        <v>-610.4797483245899</v>
+        <v>-610.6619358353976</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>39.52337526524337</v>
+        <v>39.85944042579284</v>
       </c>
       <c r="G46">
-        <v>529.6070475318013</v>
+        <v>495.1521029851727</v>
       </c>
       <c r="H46">
-        <v>1873.814952233496</v>
+        <v>1853.789374223035</v>
       </c>
       <c r="I46">
-        <v>820.9225515118566</v>
+        <v>835.4118724000426</v>
       </c>
       <c r="J46">
-        <v>-143.2493403559034</v>
+        <v>-146.3017839301119</v>
       </c>
       <c r="K46">
-        <v>-949.3882979248878</v>
+        <v>-1003.393930057152</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>41.16459565010697</v>
+        <v>38.26967235760313</v>
       </c>
       <c r="G47">
-        <v>542.1037474783649</v>
+        <v>514.3671570328365</v>
       </c>
       <c r="H47">
-        <v>1890.943890236809</v>
+        <v>1854.427054518899</v>
       </c>
       <c r="I47">
-        <v>885.5928615861689</v>
+        <v>909.583190578129</v>
       </c>
       <c r="J47">
-        <v>-188.8168008863753</v>
+        <v>-186.2135631471218</v>
       </c>
       <c r="K47">
-        <v>-1368.074046384511</v>
+        <v>-1386.701498043381</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>37.91399157637447</v>
+        <v>38.49042836046257</v>
       </c>
       <c r="G48">
-        <v>527.9997226529807</v>
+        <v>546.71663549965</v>
       </c>
       <c r="H48">
-        <v>2022.046253400958</v>
+        <v>1933.348341737718</v>
       </c>
       <c r="I48">
-        <v>957.6655986044486</v>
+        <v>938.8202003063085</v>
       </c>
       <c r="J48">
-        <v>-234.7251931567513</v>
+        <v>-244.4785444562573</v>
       </c>
       <c r="K48">
-        <v>-1721.09665594873</v>
+        <v>-1656.181333542095</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>38.81916180816708</v>
+        <v>40.4163444721109</v>
       </c>
       <c r="G49">
-        <v>585.2052662372437</v>
+        <v>586.2593815935043</v>
       </c>
       <c r="H49">
-        <v>1975.415103347974</v>
+        <v>1928.614149901967</v>
       </c>
       <c r="I49">
-        <v>1085.271613484422</v>
+        <v>1066.588292429148</v>
       </c>
       <c r="J49">
-        <v>-281.2033056586644</v>
+        <v>-296.7729082172061</v>
       </c>
       <c r="K49">
-        <v>-2153.434934720166</v>
+        <v>-2127.316413961682</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>39.26456658982115</v>
+        <v>38.5684685284307</v>
       </c>
       <c r="G50">
-        <v>555.155994482509</v>
+        <v>569.1702963260504</v>
       </c>
       <c r="H50">
-        <v>1958.868451170127</v>
+        <v>2036.364755133885</v>
       </c>
       <c r="I50">
-        <v>1220.691331283727</v>
+        <v>1211.523758147765</v>
       </c>
       <c r="J50">
-        <v>-334.7623023914752</v>
+        <v>-319.1266069826557</v>
       </c>
       <c r="K50">
-        <v>-2507.818962607259</v>
+        <v>-2436.213253226492</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>39.62403602319272</v>
+        <v>39.14333186005956</v>
       </c>
       <c r="G51">
-        <v>587.3583355932593</v>
+        <v>594.4388086766384</v>
       </c>
       <c r="H51">
-        <v>1886.91268728047</v>
+        <v>1872.207512692927</v>
       </c>
       <c r="I51">
-        <v>1206.401940644395</v>
+        <v>1230.370759958595</v>
       </c>
       <c r="J51">
-        <v>-391.9468198924837</v>
+        <v>-377.1624865932882</v>
       </c>
       <c r="K51">
-        <v>-2948.790901750035</v>
+        <v>-2935.939840939821</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>35.66065633668964</v>
+        <v>38.45547073698818</v>
       </c>
       <c r="G52">
-        <v>628.9283563463621</v>
+        <v>622.5223281888639</v>
       </c>
       <c r="H52">
-        <v>1986.050751229615</v>
+        <v>1882.751636808919</v>
       </c>
       <c r="I52">
-        <v>1360.346123635138</v>
+        <v>1305.033890638809</v>
       </c>
       <c r="J52">
-        <v>-418.0132802420929</v>
+        <v>-429.3159565515668</v>
       </c>
       <c r="K52">
-        <v>-3355.407220050901</v>
+        <v>-3457.163740863193</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>37.83404476673578</v>
+        <v>35.72846221736738</v>
       </c>
       <c r="G53">
-        <v>644.7576902782844</v>
+        <v>649.554181230478</v>
       </c>
       <c r="H53">
-        <v>1981.652681129796</v>
+        <v>2071.633983441642</v>
       </c>
       <c r="I53">
-        <v>1478.017926603448</v>
+        <v>1409.17299335989</v>
       </c>
       <c r="J53">
-        <v>-469.6291169962506</v>
+        <v>-493.1672317900597</v>
       </c>
       <c r="K53">
-        <v>-3668.265583814791</v>
+        <v>-3990.72486333631</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.68008074483215</v>
+        <v>38.38515596709255</v>
       </c>
       <c r="G54">
-        <v>658.4471715331384</v>
+        <v>639.5010504950889</v>
       </c>
       <c r="H54">
-        <v>2066.532795526448</v>
+        <v>2072.613860376795</v>
       </c>
       <c r="I54">
-        <v>1601.41082287356</v>
+        <v>1604.107011300203</v>
       </c>
       <c r="J54">
-        <v>-505.6061129053078</v>
+        <v>-555.5278116233314</v>
       </c>
       <c r="K54">
-        <v>-4371.860363875841</v>
+        <v>-4392.161493502303</v>
       </c>
     </row>
   </sheetData>
